--- a/data/rings_base_example/Power_ImpExpHubs.xlsx
+++ b/data/rings_base_example/Power_ImpExpHubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon Malacek\Code\LEGO-Pyomo\data\rings_base_example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7459E48B-D79F-4004-BB47-0E65D9CE4BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF424DC-F412-4B1D-B97D-6994A3EEABF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="857" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="857" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power ImpExp" sheetId="117" r:id="rId1"/>
@@ -736,7 +736,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -829,10 +829,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="12">
-        <v>1000</v>
+        <v>0.8</v>
       </c>
       <c r="E7" s="12">
-        <v>1000</v>
+        <v>0.8</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>17</v>
